--- a/RAnalysis/Output/Water_Chemistry/MS_Table.xlsx
+++ b/RAnalysis/Output/Water_Chemistry/MS_Table.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.gurr\Documents\Github_repositories\Airradians_OA\RAnalysis\Output\Water_Chemistry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.gurr\Documents\Github_repositories\Airradians_OA-foodsupply\RAnalysis\Output\Water_Chemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="0" windowWidth="20376" windowHeight="7212"/>
+    <workbookView xWindow="3528" yWindow="0" windowWidth="20376" windowHeight="7212"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryTable_meanSE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>N</t>
   </si>
@@ -43,84 +42,29 @@
     <t>High</t>
   </si>
   <si>
-    <t>25.9 ± 0.174</t>
-  </si>
-  <si>
-    <t>21.1 ± 0.195</t>
-  </si>
-  <si>
-    <t>878 ± 24.1</t>
-  </si>
-  <si>
-    <t>1820 ± 7.6</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>25.7 ± 0.182</t>
-  </si>
-  <si>
-    <t>20.8 ± 0.318</t>
-  </si>
-  <si>
-    <t>749 ± 24.7</t>
-  </si>
-  <si>
-    <t>1810 ± 10.8</t>
-  </si>
-  <si>
-    <t>25.9 ± 0.173</t>
-  </si>
-  <si>
-    <t>21.1 ± 0.198</t>
-  </si>
-  <si>
-    <t>613 ± 13.1</t>
-  </si>
-  <si>
-    <t>1820 ± 7.31</t>
-  </si>
-  <si>
-    <t>25.7 ± 0.2</t>
-  </si>
-  <si>
-    <t>20.7 ± 0.323</t>
-  </si>
-  <si>
-    <t>9.11 ± 0.058</t>
-  </si>
-  <si>
-    <t>552 ± 10.9</t>
-  </si>
-  <si>
-    <t>1820 ± 10.4</t>
-  </si>
-  <si>
     <t>food supply</t>
   </si>
   <si>
-    <t>(ppt)</t>
-  </si>
-  <si>
     <t>(°C)</t>
   </si>
   <si>
-    <t>(mg L-1)</t>
-  </si>
-  <si>
-    <t>(total scale)</t>
-  </si>
-  <si>
     <t>(µatm)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (mmol/kgSW)</t>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Elevated</t>
+  </si>
+  <si>
+    <t>(chosen scale)</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -131,7 +75,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -141,7 +84,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TCO</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -150,11 +107,19 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (DIC)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -165,7 +130,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -175,14 +139,13 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t>2</t>
     </r>
   </si>
   <si>
@@ -191,7 +154,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aragonite</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -202,75 +179,236 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Ω</t>
+    <t>Calculated values (CO2SYS ouput)</t>
+  </si>
+  <si>
+    <t>Measured values</t>
+  </si>
+  <si>
+    <t>21 ± 0.19</t>
+  </si>
+  <si>
+    <t>26.1 ± 0.14</t>
+  </si>
+  <si>
+    <t>9.38  ± 0.031</t>
+  </si>
+  <si>
+    <t>7.69 ± 0.007</t>
+  </si>
+  <si>
+    <t>1770 ± 7.18</t>
+  </si>
+  <si>
+    <t>1840 ± 8.18</t>
+  </si>
+  <si>
+    <t>7.67 ± 0.008</t>
+  </si>
+  <si>
+    <t>890 ± 19.3</t>
+  </si>
+  <si>
+    <t>0.976 ± 0.02</t>
+  </si>
+  <si>
+    <t>1.54 ± 0.03</t>
+  </si>
+  <si>
+    <t>9.41  ± 0.029</t>
+  </si>
+  <si>
+    <t>1730 ± 7.25</t>
+  </si>
+  <si>
+    <t>618 ± 10.8</t>
+  </si>
+  <si>
+    <t>9.06  ± 0.070</t>
+  </si>
+  <si>
+    <t>1740 ± 4.84</t>
+  </si>
+  <si>
+    <t>1830 ± 7.17</t>
+  </si>
+  <si>
+    <t>743 ± 17.5</t>
+  </si>
+  <si>
+    <t>9.11  ± 0.058</t>
+  </si>
+  <si>
+    <t>1830 ± 7.27</t>
+  </si>
+  <si>
+    <t>555 ± 7.85</t>
+  </si>
+  <si>
+    <t>7.82 ± 0.007</t>
+  </si>
+  <si>
+    <t>7.74 ± 0.01</t>
+  </si>
+  <si>
+    <t>7.86 ± 0.006</t>
+  </si>
+  <si>
+    <t>1.33 ± 0.02</t>
+  </si>
+  <si>
+    <t>1.13 ± 0.02</t>
+  </si>
+  <si>
+    <t>1.43 ± 0.02</t>
+  </si>
+  <si>
+    <t>2.1 ± 0.03</t>
+  </si>
+  <si>
+    <t>1.79 ± 0.04</t>
+  </si>
+  <si>
+    <t>2.26 ± 0.04</t>
+  </si>
+  <si>
+    <t>26.1 ± 0.13</t>
+  </si>
+  <si>
+    <t>26 ± 0.14</t>
+  </si>
+  <si>
+    <t>25.9 ± 0.16</t>
+  </si>
+  <si>
+    <t>21.1 ± 0.20</t>
+  </si>
+  <si>
+    <t>21.1 ± 0.25</t>
+  </si>
+  <si>
+    <t>21 ± 0.18</t>
+  </si>
+  <si>
+    <t>7.84 ± 0.005</t>
+  </si>
+  <si>
+    <t>7.76 ± 0.009</t>
+  </si>
+  <si>
+    <t>7.88 ± 0.005</t>
+  </si>
+  <si>
+    <t>1710 ± 6.40</t>
+  </si>
+  <si>
+    <t>1830 ± 7.30</t>
+  </si>
+  <si>
+    <r>
+      <t>(mg L</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>aragonite</t>
-    </r>
-  </si>
-  <si>
-    <t>7.82 ± 0.009</t>
-  </si>
-  <si>
-    <t>7.86 ± 0.009</t>
-  </si>
-  <si>
-    <t>7.74 ± 0.014</t>
-  </si>
-  <si>
-    <t>7.68 ± 0.011</t>
-  </si>
-  <si>
-    <t>9.38 ± 0.031</t>
-  </si>
-  <si>
-    <t>9.06 ± 0.070</t>
-  </si>
-  <si>
-    <t>9.41 ± 0.029</t>
-  </si>
-  <si>
-    <t>0.989 ± 0.027</t>
-  </si>
-  <si>
-    <t>1.1 ± 0.029</t>
-  </si>
-  <si>
-    <t>1.32 ± 0.025</t>
-  </si>
-  <si>
-    <t>1.39 ± 0.032</t>
-  </si>
-  <si>
-    <t>1.56 ± 0.041</t>
-  </si>
-  <si>
-    <t>1.73 ± 0.046</t>
-  </si>
-  <si>
-    <t>2.08 ± 0.039</t>
-  </si>
-  <si>
-    <t>2.19 ± 0.049</t>
-  </si>
-  <si>
-    <t>Treatment</t>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(mol kgDW</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> (µmol kgSW</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(µmol kgSW</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pH </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,14 +556,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="2"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,9 +569,28 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -800,7 +955,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,24 +966,39 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1151,310 +1321,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L14"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="1" customWidth="1"/>
-    <col min="5" max="12" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="13.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="13.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" customWidth="1"/>
+    <col min="16" max="16" width="1.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="4.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="G11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="J11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="14">
+        <v>29</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="J13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="14">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="N15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+    <row r="16" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="2:15" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I30" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RAnalysis/Output/Water_Chemistry/MS_Table.xlsx
+++ b/RAnalysis/Output/Water_Chemistry/MS_Table.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="0" windowWidth="20376" windowHeight="7212"/>
+    <workbookView xWindow="5880" yWindow="0" windowWidth="20376" windowHeight="7212"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryTable_meanSE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -197,54 +197,30 @@
     <t>7.69 ± 0.007</t>
   </si>
   <si>
-    <t>1770 ± 7.18</t>
-  </si>
-  <si>
     <t>1840 ± 8.18</t>
   </si>
   <si>
     <t>7.67 ± 0.008</t>
   </si>
   <si>
-    <t>890 ± 19.3</t>
-  </si>
-  <si>
-    <t>0.976 ± 0.02</t>
-  </si>
-  <si>
     <t>1.54 ± 0.03</t>
   </si>
   <si>
     <t>9.41  ± 0.029</t>
   </si>
   <si>
-    <t>1730 ± 7.25</t>
-  </si>
-  <si>
-    <t>618 ± 10.8</t>
-  </si>
-  <si>
     <t>9.06  ± 0.070</t>
   </si>
   <si>
-    <t>1740 ± 4.84</t>
-  </si>
-  <si>
     <t>1830 ± 7.17</t>
   </si>
   <si>
-    <t>743 ± 17.5</t>
-  </si>
-  <si>
     <t>9.11  ± 0.058</t>
   </si>
   <si>
     <t>1830 ± 7.27</t>
   </si>
   <si>
-    <t>555 ± 7.85</t>
-  </si>
-  <si>
     <t>7.82 ± 0.007</t>
   </si>
   <si>
@@ -254,24 +230,12 @@
     <t>7.86 ± 0.006</t>
   </si>
   <si>
-    <t>1.33 ± 0.02</t>
-  </si>
-  <si>
-    <t>1.13 ± 0.02</t>
-  </si>
-  <si>
-    <t>1.43 ± 0.02</t>
-  </si>
-  <si>
     <t>2.1 ± 0.03</t>
   </si>
   <si>
     <t>1.79 ± 0.04</t>
   </si>
   <si>
-    <t>2.26 ± 0.04</t>
-  </si>
-  <si>
     <t>26.1 ± 0.13</t>
   </si>
   <si>
@@ -297,9 +261,6 @@
   </si>
   <si>
     <t>7.88 ± 0.005</t>
-  </si>
-  <si>
-    <t>1710 ± 6.40</t>
   </si>
   <si>
     <t>1830 ± 7.30</t>
@@ -330,7 +291,7 @@
   </si>
   <si>
     <r>
-      <t>(mol kgDW</t>
+      <t xml:space="preserve"> (µmol kgSW</t>
     </r>
     <r>
       <rPr>
@@ -354,7 +315,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> (µmol kgSW</t>
+      <t>(µmol kgSW</t>
     </r>
     <r>
       <rPr>
@@ -377,8 +338,50 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>(µmol kgSW</t>
+    <t xml:space="preserve">pH </t>
+  </si>
+  <si>
+    <t>2.25 ± 0.04</t>
+  </si>
+  <si>
+    <t>0.98 ± 0.02</t>
+  </si>
+  <si>
+    <t>1.32 ± 0.02</t>
+  </si>
+  <si>
+    <t>1.14 ± 0.02</t>
+  </si>
+  <si>
+    <t>1.42 ± 0.02</t>
+  </si>
+  <si>
+    <t>1770 ± 6.61</t>
+  </si>
+  <si>
+    <t>1730 ± 6.75</t>
+  </si>
+  <si>
+    <t>1740 ± 4.77</t>
+  </si>
+  <si>
+    <t>1710 ± 5.10</t>
+  </si>
+  <si>
+    <t>893 ± 18.9</t>
+  </si>
+  <si>
+    <t>616 ± 10.9</t>
+  </si>
+  <si>
+    <t>745 ± 17.6</t>
+  </si>
+  <si>
+    <t>553 ± 7.5</t>
+  </si>
+  <si>
+    <r>
+      <t>(mol kgSW</t>
     </r>
     <r>
       <rPr>
@@ -399,9 +402,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">pH </t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="P17" sqref="A1:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="12" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>16</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>10</v>
@@ -1522,24 +1522,24 @@
       <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1551,11 +1551,11 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="14"/>
       <c r="K10" s="3"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
@@ -1571,35 +1571,35 @@
         <v>28</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,35 +1631,35 @@
         <v>29</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1691,35 +1691,35 @@
         <v>24</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -1832,6 +1832,7 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
+      <c r="M23"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24"/>
@@ -1845,18 +1846,100 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I27" s="14"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I28" s="14"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I29" s="14"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I30" s="14"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
